--- a/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/2025-10/Laboratorios/Lab 04 - Pilas y colas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66ba16ff0fd63e2c/Desktop/Universidad/SEGUNDO SEMESTRE/EDA/PY1/Laboratorio4-G05/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{059725CA-9D74-4145-8FC3-28FE5756BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CAB1D75-7132-4A69-A395-BC4C20E1FCBD}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{059725CA-9D74-4145-8FC3-28FE5756BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD8552A-5045-49DD-B451-3567CDB7C0FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -293,139 +291,6 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -571,6 +436,139 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -688,7 +686,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -892,6 +890,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3440000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -992,10 +1014,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -1025,10 +1047,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$C$14:$C$21</c:f>
+              <c:f>'01-Data Lab 4'!$C$14:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.13500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212.916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>515.16499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1229.557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1910.09</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1330,6 +1376,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1337,7 +1384,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1370,7 +1416,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1569,6 +1615,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1240000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1669,10 +1739,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -1702,10 +1772,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$D$14:$D$21</c:f>
+              <c:f>'01-Data Lab 4'!$D$14:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9689999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2007,6 +2101,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2014,7 +2109,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2047,7 +2141,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2246,6 +2340,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2346,10 +2464,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -2379,10 +2497,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$E$14:$E$21</c:f>
+              <c:f>'01-Data Lab 4'!$E$14:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2684,6 +2826,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2691,7 +2834,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2724,7 +2866,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2928,6 +3070,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.345000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3028,10 +3194,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -3061,10 +3227,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$14:$F$21</c:f>
+              <c:f>'01-Data Lab 4'!$F$14:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.384999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.148000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>539.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1228.028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1860.5920000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3366,6 +3556,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3373,7 +3564,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3406,7 +3596,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3610,6 +3800,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.534999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216.57599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480.65899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1429.114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2148.4450000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3710,10 +3924,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -3743,10 +3957,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$G$14:$G$21</c:f>
+              <c:f>'01-Data Lab 4'!$G$14:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.073999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.42599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>563.16099999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1328.2270000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1988.0619999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4048,6 +4286,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4055,7 +4294,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4088,7 +4326,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4292,6 +4530,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4392,10 +4654,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -4425,10 +4687,34 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$H$14:$H$21</c:f>
+              <c:f>'01-Data Lab 4'!$H$14:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4730,6 +5016,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4737,7 +5024,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8185,7 +8471,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8218,7 +8504,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8251,7 +8537,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8284,7 +8570,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -8317,7 +8603,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8396,19 +8682,19 @@
     <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="16">
       <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="enqueue (Array List) " dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="dequeue (Array List) " dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="peek (Array List) " dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{092BA754-1EE8-42B8-A0C9-8E5FBAFE3FD2}" name="push (Array List)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{F7FD567A-4A42-4CDC-9449-A0BA8E9714D3}" name="pop (Array List)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{91D17C3E-2CFC-4978-91FF-19ADDF3A1CD9}" name="top(Array List) " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="enqueue (Array List) " dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="dequeue (Array List) " dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="peek (Array List) " dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{092BA754-1EE8-42B8-A0C9-8E5FBAFE3FD2}" name="push (Array List)" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{F7FD567A-4A42-4CDC-9449-A0BA8E9714D3}" name="pop (Array List)" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{91D17C3E-2CFC-4978-91FF-19ADDF3A1CD9}" name="top(Array List) " dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:H21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A13:H21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8420,13 +8706,13 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="6">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="enqueue (Linked List) " dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="dequeue (Linked List)  " dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="peek (Linked List)  " dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="enqueue (Linked List) " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="dequeue (Linked List)  " dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="peek (Linked List)  " dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{D4319BDE-1663-4E02-A459-D4E464B40376}" name="push (Linked List) " dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{D1102AA4-3669-4976-AB80-8CA1D8EED93A}" name="pop (Linked List) " dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{A75BD949-6BC0-4683-B105-18DE72DE82D5}" name="top(Linked List) " dataDxfId="0"/>
@@ -8436,7 +8722,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -8734,17 +9020,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
-    <col min="6" max="12" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="6" customWidth="1"/>
+    <col min="6" max="12" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -8759,7 +9045,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="30">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="27.6">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -8785,7 +9071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="13.8">
       <c r="A3" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8793,14 +9079,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="13.8">
       <c r="A4" s="2">
         <v>0.05</v>
       </c>
@@ -8808,12 +9106,24 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9.798</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
@@ -8823,12 +9133,24 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="C5" s="4">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45.534999999999997</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
@@ -8838,12 +9160,24 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="4">
+        <v>1.825</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>136.529</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
@@ -8853,12 +9187,24 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="C7" s="4">
+        <v>2.3279999999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>216.57599999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
@@ -8868,12 +9214,24 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.242</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>59.073</v>
+      </c>
+      <c r="G8" s="4">
+        <v>480.65899999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
@@ -8883,12 +9241,24 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="4">
+        <v>5.9509999999999996</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6.6440000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.1289999999999996</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1429.114</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
@@ -8898,12 +9268,24 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10" s="4">
+        <v>7.3440000000000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.1240000000000006</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>12.345000000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2148.4450000000002</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
       <c r="C12" s="7" t="s">
@@ -8917,7 +9299,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="30">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="27.6">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +9325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="13.8">
       <c r="A14" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8951,14 +9333,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="C14" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="13.8">
       <c r="A15" s="2">
         <v>0.05</v>
       </c>
@@ -8966,12 +9360,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="C15" s="4">
+        <v>6.2839999999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.4020000000000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.9580000000000002</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
@@ -8981,12 +9387,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="C16" s="4">
+        <v>46.51</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>36.384999999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>24.116</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
@@ -8996,12 +9414,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="C17" s="4">
+        <v>106.13500000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>54.148000000000003</v>
+      </c>
+      <c r="G17" s="4">
+        <v>74.073999999999998</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
@@ -9011,12 +9441,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="C18" s="4">
+        <v>212.916</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>134.755</v>
+      </c>
+      <c r="G18" s="4">
+        <v>195.42599999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
@@ -9026,12 +9468,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="C19" s="4">
+        <v>515.16499999999996</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.0209999999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>539.005</v>
+      </c>
+      <c r="G19" s="4">
+        <v>563.16099999999994</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
@@ -9041,12 +9495,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="C20" s="4">
+        <v>1229.557</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1228.028</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1328.2270000000001</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
@@ -9056,12 +9522,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="C21" s="4">
+        <v>1910.09</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.9689999999999999</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1860.5920000000001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1988.0619999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9080,116 +9558,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9442,27 +9816,122 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9487,9 +9956,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66ba16ff0fd63e2c/Desktop/Universidad/SEGUNDO SEMESTRE/EDA/PY1/Laboratorio4-G05/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_espinelg2_uniandes_edu_co/Documents/EDA-2610/Laboratorio4-G05/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{059725CA-9D74-4145-8FC3-28FE5756BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD8552A-5045-49DD-B451-3567CDB7C0FD}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{059725CA-9D74-4145-8FC3-28FE5756BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4CBAC46-6594-42FE-962F-64154E60000C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>TIEMPOS PARA QUEUE [ms]</t>
   </si>
@@ -91,6 +93,222 @@
   </si>
   <si>
     <t xml:space="preserve">top(Linked List) </t>
+  </si>
+  <si>
+    <t>0,142 ms</t>
+  </si>
+  <si>
+    <t>0,085 ms</t>
+  </si>
+  <si>
+    <t>0,014 ms</t>
+  </si>
+  <si>
+    <t>0,057 ms</t>
+  </si>
+  <si>
+    <t>0,243 ms</t>
+  </si>
+  <si>
+    <t>0,006 ms</t>
+  </si>
+  <si>
+    <t>0,712 ms</t>
+  </si>
+  <si>
+    <t>0,649 ms</t>
+  </si>
+  <si>
+    <t>0,011 ms</t>
+  </si>
+  <si>
+    <t>9,766 ms</t>
+  </si>
+  <si>
+    <t>0,004 ms</t>
+  </si>
+  <si>
+    <t>0,807 ms</t>
+  </si>
+  <si>
+    <t>0,829 ms</t>
+  </si>
+  <si>
+    <t>0,624 ms</t>
+  </si>
+  <si>
+    <t>0,331 ms</t>
+  </si>
+  <si>
+    <t>46,401 ms</t>
+  </si>
+  <si>
+    <t>0,002 ms</t>
+  </si>
+  <si>
+    <t>1,731 ms</t>
+  </si>
+  <si>
+    <t>0,007 ms</t>
+  </si>
+  <si>
+    <t>2,260 ms</t>
+  </si>
+  <si>
+    <t>1,409 ms</t>
+  </si>
+  <si>
+    <t>177,474 ms</t>
+  </si>
+  <si>
+    <t>2,407 ms</t>
+  </si>
+  <si>
+    <t>2,422 ms</t>
+  </si>
+  <si>
+    <t>2,036 ms</t>
+  </si>
+  <si>
+    <t>385,988 ms</t>
+  </si>
+  <si>
+    <t>0,003 ms</t>
+  </si>
+  <si>
+    <t>4,157 ms</t>
+  </si>
+  <si>
+    <t>4,109 ms</t>
+  </si>
+  <si>
+    <t>0,005 ms</t>
+  </si>
+  <si>
+    <t>4,377 ms</t>
+  </si>
+  <si>
+    <t>733,139 ms</t>
+  </si>
+  <si>
+    <t>3,377 ms</t>
+  </si>
+  <si>
+    <t>3,264 ms</t>
+  </si>
+  <si>
+    <t>3,747 ms</t>
+  </si>
+  <si>
+    <t>42,065 ms</t>
+  </si>
+  <si>
+    <t>11,306 ms</t>
+  </si>
+  <si>
+    <t>13,271 ms</t>
+  </si>
+  <si>
+    <t>1876,873 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1075,348 ms</t>
+  </si>
+  <si>
+    <t>0,097 ms</t>
+  </si>
+  <si>
+    <t>0,049 ms</t>
+  </si>
+  <si>
+    <t>0,034 ms</t>
+  </si>
+  <si>
+    <t>0,148 ms</t>
+  </si>
+  <si>
+    <t>0,480 ms</t>
+  </si>
+  <si>
+    <t>0,408 ms</t>
+  </si>
+  <si>
+    <t>0,336 ms</t>
+  </si>
+  <si>
+    <t>14,479 ms</t>
+  </si>
+  <si>
+    <t>1,143 ms</t>
+  </si>
+  <si>
+    <t>0,816 ms</t>
+  </si>
+  <si>
+    <t>0,650 ms</t>
+  </si>
+  <si>
+    <t>49,209 ms</t>
+  </si>
+  <si>
+    <t>2,857 ms</t>
+  </si>
+  <si>
+    <t>1,660 ms</t>
+  </si>
+  <si>
+    <t>1,283 ms</t>
+  </si>
+  <si>
+    <t>186,680 ms</t>
+  </si>
+  <si>
+    <t>3,465 ms</t>
+  </si>
+  <si>
+    <t>2,467 ms</t>
+  </si>
+  <si>
+    <t>2,042 ms</t>
+  </si>
+  <si>
+    <t>291,854 ms</t>
+  </si>
+  <si>
+    <t>4,080 ms</t>
+  </si>
+  <si>
+    <t>4,169 ms</t>
+  </si>
+  <si>
+    <t>4,599 ms</t>
+  </si>
+  <si>
+    <t>763,884 ms</t>
+  </si>
+  <si>
+    <t>7,656 ms</t>
+  </si>
+  <si>
+    <t>9,566 ms</t>
+  </si>
+  <si>
+    <t>11,553 ms</t>
+  </si>
+  <si>
+    <t>1368,950 ms</t>
+  </si>
+  <si>
+    <t>7,691 ms</t>
+  </si>
+  <si>
+    <t>8,324 ms</t>
+  </si>
+  <si>
+    <t>16,773 ms</t>
+  </si>
+  <si>
+    <t>2085,335 ms</t>
   </si>
 </sst>
 </file>
@@ -176,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +415,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +910,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -886,33 +1110,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$C$3:$C$11</c:f>
+              <c:f>'01-Data Lab 4'!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.107</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40300000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77200000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.825</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3279999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9509999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.3440000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,10 +1235,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -1047,33 +1268,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$C$14:$C$22</c:f>
+              <c:f>'01-Data Lab 4'!$C$14:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.13200000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2839999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.13500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.916</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>515.16499999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1229.557</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1910.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1637,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1611,33 +1832,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$D$3:$D$11</c:f>
+              <c:f>'01-Data Lab 4'!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81799999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8859999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.242</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1240000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,10 +1957,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -1772,33 +1990,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$D$14:$D$22</c:f>
+              <c:f>'01-Data Lab 4'!$D$14:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36399999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83899999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1240000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99099999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0209999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9689999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +2359,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2336,33 +2554,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$E$3:$E$11</c:f>
+              <c:f>'01-Data Lab 4'!$E$4:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,10 +2679,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -2497,33 +2712,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$E$14:$E$22</c:f>
+              <c:f>'01-Data Lab 4'!$E$14:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,7 +2959,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2866,7 +3081,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3066,33 +3281,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$3:$F$10</c:f>
+              <c:f>'01-Data Lab 4'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33600000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64700000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4490000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8520000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.073</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1289999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.345000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,10 +3406,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -3227,33 +3439,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$F$14:$F$22</c:f>
+              <c:f>'01-Data Lab 4'!$F$14:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4020000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.384999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.148000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.755</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>539.005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1228.028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1860.5920000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,7 +3808,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3796,33 +4008,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$G$3:$G$10</c:f>
+              <c:f>'01-Data Lab 4'!$G$5:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26600000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.534999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136.529</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>216.57599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>480.65899999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1429.114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2148.4450000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3924,10 +4130,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -3957,33 +4163,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$G$14:$G$22</c:f>
+              <c:f>'01-Data Lab 4'!$G$14:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.14599999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9580000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.116</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.073999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.42599999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>563.16099999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1328.2270000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1988.0619999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4326,7 +4532,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4526,33 +4732,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$H$3:$H$10</c:f>
+              <c:f>'01-Data Lab 4'!$H$7:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,10 +4848,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$A$14:$A$22</c:f>
+              <c:f>'01-Data Lab 4'!$A$14:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
@@ -4687,33 +4881,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'01-Data Lab 4'!$H$14:$H$22</c:f>
+              <c:f>'01-Data Lab 4'!$H$14:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8471,7 +8665,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="9291638" cy="6067425"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8504,7 +8698,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="9291638" cy="6067425"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8537,7 +8731,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="9291638" cy="6067425"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8570,7 +8764,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="9291638" cy="6067425"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -8603,7 +8797,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8636,7 +8830,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="9291638" cy="6067425"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8722,7 +8916,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -9020,17 +9214,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="6" customWidth="1"/>
-    <col min="6" max="12" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="6" customWidth="1"/>
+    <col min="6" max="12" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
@@ -9045,7 +9239,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="27.6">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="27.75">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -9071,7 +9265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="13.8">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="13.9">
       <c r="A3" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9079,26 +9273,26 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.107</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="E3" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H3" s="4">
-        <v>8.9999999999999993E-3</v>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="13.8">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="13.9">
       <c r="A4" s="2">
         <v>0.05</v>
       </c>
@@ -9106,23 +9300,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9.798</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2E-3</v>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9133,23 +9327,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="G5" s="4">
-        <v>45.534999999999997</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2E-3</v>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9160,23 +9354,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="4">
-        <v>1.825</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.8859999999999999</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.4490000000000001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>136.529</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2E-3</v>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9187,23 +9381,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="4">
-        <v>2.3279999999999998</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.8520000000000001</v>
-      </c>
-      <c r="G7" s="4">
-        <v>216.57599999999999</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2E-3</v>
+      <c r="C7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9214,23 +9408,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="4">
-        <v>3.81</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.242</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>59.073</v>
-      </c>
-      <c r="G8" s="4">
-        <v>480.65899999999999</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2E-3</v>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9241,23 +9435,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="4">
-        <v>5.9509999999999996</v>
-      </c>
-      <c r="D9" s="4">
-        <v>6.6440000000000001</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6.1289999999999996</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1429.114</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2E-3</v>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9268,23 +9462,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="4">
-        <v>7.3440000000000003</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9.1240000000000006</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>12.345000000000001</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2148.4450000000002</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3.0000000000000001E-3</v>
+      <c r="C10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
@@ -9299,7 +9493,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="27.6">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="27.75">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
@@ -9325,7 +9519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="13.8">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="13.9">
       <c r="A14" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9333,26 +9527,26 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2E-3</v>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="13.8">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="13.9">
       <c r="A15" s="2">
         <v>0.05</v>
       </c>
@@ -9360,23 +9554,23 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="4">
-        <v>6.2839999999999998</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5.4020000000000001</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5.9580000000000002</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1E-3</v>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9387,23 +9581,23 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="4">
-        <v>46.51</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>36.384999999999998</v>
-      </c>
-      <c r="G16" s="4">
-        <v>24.116</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1E-3</v>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9414,23 +9608,23 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4">
-        <v>106.13500000000001</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="F17" s="4">
-        <v>54.148000000000003</v>
-      </c>
-      <c r="G17" s="4">
-        <v>74.073999999999998</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1E-3</v>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9441,23 +9635,23 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="4">
-        <v>212.916</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>134.755</v>
-      </c>
-      <c r="G18" s="4">
-        <v>195.42599999999999</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1E-3</v>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9468,23 +9662,23 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="4">
-        <v>515.16499999999996</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3.0209999999999999</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>539.005</v>
-      </c>
-      <c r="G19" s="4">
-        <v>563.16099999999994</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1E-3</v>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9495,23 +9689,23 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="4">
-        <v>1229.557</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1228.028</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1328.2270000000001</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1E-3</v>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9522,23 +9716,23 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="4">
-        <v>1910.09</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3.9689999999999999</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1860.5920000000001</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1988.0619999999999</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1E-3</v>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9558,6 +9752,119 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9566,7 +9873,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -9815,120 +10122,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9936,7 +10147,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9953,21 +10164,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>